--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1178312.577061138</v>
+        <v>1174300.774329041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.96014034</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>71.31660305952569</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>81.95987075024327</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.486043837284646</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>9.267814325144167</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>45.14443788715938</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7646952433531</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>44.63220474137391</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>171.5577467618247</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>168.0132652396199</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>316.27398193933</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,13 +2013,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>50.22923743588498</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>69.63050452769617</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>351.9934270990178</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.711133269999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.07231000234304</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>26.58735178782634</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>8.186454565729013</v>
       </c>
       <c r="W23" t="n">
-        <v>95.14564290930542</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>324.6928419575239</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>77.62145734137951</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892122</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>2.242801044935286</v>
       </c>
       <c r="V29" t="n">
-        <v>164.2289473119879</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>357.3083453980416</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27.05480724899048</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>368.8546721279972</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
-        <v>14.94015140298357</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>76.47881201445276</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>15.75775879579366</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>142.977575408017</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>165.5973863402912</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.12173828816419</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>231.9557431617677</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.4191558211666</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>371.6401324079421</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.497922066406431</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>22.30754506344987</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,16 +3979,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>348.4213990190347</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>321.4425785919041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>143.2648099042401</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>98.68849319413027</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.422259516197</v>
+        <v>1253.956624011809</v>
       </c>
       <c r="C11" t="n">
-        <v>1240.521529529497</v>
+        <v>1253.956624011809</v>
       </c>
       <c r="D11" t="n">
-        <v>817.2289087144973</v>
+        <v>1253.956624011809</v>
       </c>
       <c r="E11" t="n">
-        <v>745.1919359270976</v>
+        <v>827.9796841596666</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0677541164978</v>
+        <v>402.8555023490668</v>
       </c>
       <c r="G11" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516197</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.422259516197</v>
+        <v>1673.804988303339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,25 +5111,25 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M12" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N12" t="n">
         <v>1149.507219438093</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.1010292829092</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C13" t="n">
-        <v>423.1010292829092</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D13" t="n">
-        <v>423.1010292829092</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574696</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574696</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K13" t="n">
-        <v>244.4028516473351</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L13" t="n">
-        <v>353.897341839383</v>
+        <v>895.0222295403242</v>
       </c>
       <c r="M13" t="n">
-        <v>698.242083603971</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N13" t="n">
-        <v>1210.770261587371</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W13" t="n">
-        <v>900.5794555991647</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X13" t="n">
-        <v>658.0155590449698</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.6727907347118</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.9684841031977</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="C14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="D14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
         <v>437.0691715610003</v>
@@ -5299,31 +5299,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>1879.576579873194</v>
+        <v>2033.541816038187</v>
       </c>
       <c r="V14" t="n">
-        <v>1522.087164999444</v>
+        <v>1676.052401164436</v>
       </c>
       <c r="W14" t="n">
-        <v>1522.087164999444</v>
+        <v>1279.661051464783</v>
       </c>
       <c r="X14" t="n">
-        <v>1110.367166167191</v>
+        <v>867.9410526325303</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.9684841031977</v>
+        <v>462.6037825874205</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109023</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333022</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282774</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.4200240257001</v>
+        <v>431.6727907347109</v>
       </c>
       <c r="C16" t="n">
-        <v>417.447460904616</v>
+        <v>259.7002276136269</v>
       </c>
       <c r="D16" t="n">
-        <v>417.447460904616</v>
+        <v>259.7002276136269</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2392550574696</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F16" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484807</v>
+        <v>139.2640696814201</v>
       </c>
       <c r="K16" t="n">
-        <v>166.4811349991142</v>
+        <v>221.0319991956862</v>
       </c>
       <c r="L16" t="n">
-        <v>652.3645187823271</v>
+        <v>330.5264893877342</v>
       </c>
       <c r="M16" t="n">
-        <v>768.3405774192805</v>
+        <v>859.6247907993786</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.770261587371</v>
+        <v>1372.152968782779</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658704</v>
+        <v>1852.309315854112</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q16" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.480399803424</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.345061429706</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.345061429706</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.492657602219</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.928761048024</v>
+        <v>658.0155590449689</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.5859927377658</v>
+        <v>431.6727907347109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1741.379565094871</v>
+        <v>1212.417437723176</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.669196165962</v>
+        <v>785.5167077364761</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.376575350962</v>
+        <v>362.2240869214763</v>
       </c>
       <c r="E17" t="n">
-        <v>722.3996354988195</v>
+        <v>362.2240869214763</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
@@ -5515,22 +5515,22 @@
         <v>84.39494262103631</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
         <v>1872.202557977127</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W17" t="n">
-        <v>1741.379565094871</v>
+        <v>1212.417437723176</v>
       </c>
       <c r="X17" t="n">
-        <v>1741.379565094871</v>
+        <v>1212.417437723176</v>
       </c>
       <c r="Y17" t="n">
-        <v>1741.379565094871</v>
+        <v>1212.417437723176</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.6727907347118</v>
+        <v>688.5892794470593</v>
       </c>
       <c r="C19" t="n">
-        <v>259.7002276136278</v>
+        <v>516.6167163259753</v>
       </c>
       <c r="D19" t="n">
-        <v>259.7002276136278</v>
+        <v>516.6167163259753</v>
       </c>
       <c r="E19" t="n">
-        <v>93.49202176648137</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H19" t="n">
         <v>42.75541829589048</v>
@@ -5676,22 +5676,22 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K19" t="n">
-        <v>321.3980373970705</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8925275891185</v>
+        <v>546.8461064955294</v>
       </c>
       <c r="M19" t="n">
-        <v>546.868586226072</v>
+        <v>1075.944407907174</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1588.472585890574</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>1690.926608658705</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
@@ -5712,13 +5712,13 @@
         <v>1175.431859426652</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1105.098016469383</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>1105.098016469383</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>878.7552481591249</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.6561482825904</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="C20" t="n">
-        <v>42.75541829589048</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589048</v>
+        <v>824.281274409667</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589048</v>
+        <v>398.3043345575246</v>
       </c>
       <c r="F20" t="n">
         <v>42.75541829589048</v>
@@ -5755,10 +5755,10 @@
         <v>222.2360596072046</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610011</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M20" t="n">
         <v>1017.95803136565</v>
@@ -5791,13 +5791,13 @@
         <v>2079.14225834845</v>
       </c>
       <c r="W20" t="n">
-        <v>1682.750908648796</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X20" t="n">
-        <v>1271.030909816544</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.5045125741204</v>
+        <v>1667.422259516197</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283642</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282774</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.0845988131532</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1120356920692</v>
+        <v>845.2901065953833</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1120356920692</v>
+        <v>681.9733337221541</v>
       </c>
       <c r="E22" t="n">
-        <v>208.1120356920692</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F22" t="n">
-        <v>208.1120356920692</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
         <v>42.75541829589048</v>
@@ -5910,52 +5910,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>652.3645187823272</v>
+        <v>895.022229540325</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.462820193972</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N22" t="n">
-        <v>1437.099088512676</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1703.19121418978</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1676.335303292986</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1676.335303292986</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.407938699469</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C23" t="n">
-        <v>762.5072087127692</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D23" t="n">
-        <v>762.5072087127692</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>762.5072087127692</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -6001,40 +6001,40 @@
         <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2170.377324993276</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2464.8177679938</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.083011832651</v>
+        <v>2995.265408052108</v>
       </c>
       <c r="W23" t="n">
-        <v>2020.976301823252</v>
+        <v>2995.265408052108</v>
       </c>
       <c r="X23" t="n">
-        <v>1609.256302990999</v>
+        <v>2583.545409219855</v>
       </c>
       <c r="Y23" t="n">
-        <v>1609.256302990999</v>
+        <v>2583.545409219855</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431414</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
         <v>1412.632225509645</v>
@@ -6171,28 +6171,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.407938699469</v>
+        <v>2038.677499366611</v>
       </c>
       <c r="C26" t="n">
-        <v>762.5072087127692</v>
+        <v>1611.776769379911</v>
       </c>
       <c r="D26" t="n">
-        <v>762.5072087127692</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E26" t="n">
         <v>762.5072087127692</v>
@@ -6226,25 +6226,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>701.6597934330172</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>974.175801956849</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1282.548653237666</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1596.661043507657</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2417.367651522905</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>2020.976301823252</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X26" t="n">
-        <v>1609.256302990999</v>
+        <v>2038.677499366611</v>
       </c>
       <c r="Y26" t="n">
-        <v>1609.256302990999</v>
+        <v>2038.677499366611</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6399,7 +6399,7 @@
         <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
         <v>2802.642500785833</v>
@@ -6408,13 +6408,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>887.5267542744834</v>
+        <v>739.714908284491</v>
       </c>
       <c r="C29" t="n">
-        <v>887.5267542744834</v>
+        <v>739.714908284491</v>
       </c>
       <c r="D29" t="n">
-        <v>887.5267542744834</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E29" t="n">
-        <v>887.5267542744834</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,28 +6463,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.711562710693</v>
+        <v>2730.501306026787</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.823737143029</v>
+        <v>2373.011891153036</v>
       </c>
       <c r="W29" t="n">
-        <v>2124.432387443376</v>
+        <v>1976.620541453383</v>
       </c>
       <c r="X29" t="n">
-        <v>1712.712388611123</v>
+        <v>1564.900542621131</v>
       </c>
       <c r="Y29" t="n">
-        <v>1307.375118566013</v>
+        <v>1159.563272576021</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6612,7 +6612,7 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6630,16 +6630,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1246.612713882966</v>
+        <v>2191.025133058619</v>
       </c>
       <c r="C32" t="n">
-        <v>885.6951932788834</v>
+        <v>1764.124403071919</v>
       </c>
       <c r="D32" t="n">
-        <v>462.4025724638836</v>
+        <v>1340.831782256919</v>
       </c>
       <c r="E32" t="n">
-        <v>462.4025724638836</v>
+        <v>914.8548424047768</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4025724638836</v>
+        <v>489.730660594177</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>87.39877921185536</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,28 +6700,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>1146.086407504068</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1454.459258784885</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N32" t="n">
-        <v>2197.834060919214</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
@@ -6730,22 +6730,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>2474.572426706402</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W32" t="n">
-        <v>2078.181077006749</v>
+        <v>2191.025133058619</v>
       </c>
       <c r="X32" t="n">
-        <v>1666.461078174496</v>
+        <v>2191.025133058619</v>
       </c>
       <c r="Y32" t="n">
-        <v>1666.461078174496</v>
+        <v>2191.025133058619</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6864,7 +6864,7 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>994.8841173302415</v>
+        <v>883.1206864098698</v>
       </c>
       <c r="M34" t="n">
         <v>1412.632225509645</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.6561482825904</v>
+        <v>842.2366251795572</v>
       </c>
       <c r="C35" t="n">
-        <v>42.75541829589047</v>
+        <v>415.3358951928573</v>
       </c>
       <c r="D35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072048</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
         <v>1872.202557977126</v>
@@ -6961,28 +6961,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2064.051196325233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U35" t="n">
-        <v>2064.051196325233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.561781451483</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.561781451483</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.84178261923</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.5045125741204</v>
+        <v>1262.084989471087</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>658.0155590449693</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C37" t="n">
-        <v>658.0155590449693</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="D37" t="n">
-        <v>494.69878617174</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="E37" t="n">
-        <v>328.4905803245936</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="F37" t="n">
-        <v>328.4905803245936</v>
+        <v>58.67234637244974</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574696</v>
+        <v>58.67234637244974</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>244.4028516473351</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L37" t="n">
-        <v>582.2660249670171</v>
+        <v>828.9254504309988</v>
       </c>
       <c r="M37" t="n">
-        <v>698.2420836039705</v>
+        <v>944.9015090679522</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.770261587371</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426651</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991642</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449693</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y37" t="n">
-        <v>658.0155590449693</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1717.922550502993</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.500757161562</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.500757161562</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.523817309419</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
         <v>437.0691715610004</v>
@@ -7183,7 +7183,7 @@
         <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
@@ -7192,34 +7192,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>1911.872171136034</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794523</v>
+        <v>1653.677836214705</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794523</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794523</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794523</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="Y38" t="n">
-        <v>2137.770914794523</v>
+        <v>1296.188421340954</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.5540468050089</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>803.0481433225136</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
-        <v>699.2081848377986</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E39" t="n">
-        <v>594.5062511107359</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F39" t="n">
-        <v>500.8604207936401</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>407.8805855396973</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>364.8764582478585</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>385.1054302494202</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>464.1447550896842</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>611.9357094579325</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>818.1862990803322</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.575623697826</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S39" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T39" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U39" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V39" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W39" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7329,55 +7329,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>458.9956455541964</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>944.8790293374093</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.977330749054</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2137.770914794523</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>2137.770914794523</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="U40" t="n">
-        <v>2137.770914794523</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="V40" t="n">
-        <v>1856.059447402552</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.207043575065</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="X40" t="n">
-        <v>1338.64314702087</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="Y40" t="n">
-        <v>1112.300378710612</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.3996354988195</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3996354988195</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="D41" t="n">
-        <v>722.3996354988195</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="E41" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F41" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
         <v>42.75541829589048</v>
@@ -7420,13 +7420,13 @@
         <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
         <v>1872.202557977127</v>
@@ -7444,19 +7444,19 @@
         <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344158</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470408</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W41" t="n">
-        <v>1134.119634331072</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X41" t="n">
-        <v>722.3996354988195</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.3996354988195</v>
+        <v>854.9280228494254</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.3592258501333</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C43" t="n">
-        <v>344.3866627290492</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="D43" t="n">
-        <v>181.06988985582</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="E43" t="n">
-        <v>181.06988985582</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="F43" t="n">
-        <v>178.5467362533892</v>
+        <v>230.6449094935337</v>
       </c>
       <c r="G43" t="n">
-        <v>178.5467362533892</v>
+        <v>65.288292097355</v>
       </c>
       <c r="H43" t="n">
         <v>42.75541829589048</v>
@@ -7569,52 +7569,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>977.5688445445701</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M43" t="n">
-        <v>1506.667145956215</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N43" t="n">
-        <v>1621.162401097735</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818623</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V43" t="n">
-        <v>1175.431859426652</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.431859426652</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X43" t="n">
-        <v>932.8679628724568</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y43" t="n">
-        <v>706.5251945621989</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.8796001064903</v>
+        <v>1247.573895224667</v>
       </c>
       <c r="C44" t="n">
-        <v>467.8796001064903</v>
+        <v>820.6731652379669</v>
       </c>
       <c r="D44" t="n">
-        <v>467.8796001064903</v>
+        <v>820.6731652379669</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>394.6962253858245</v>
       </c>
       <c r="F44" t="n">
         <v>42.75541829589048</v>
@@ -7678,22 +7678,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.808787422829</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W44" t="n">
-        <v>1212.417437723176</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.417437723176</v>
+        <v>1667.422259516197</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.7279643980203</v>
+        <v>1667.422259516197</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>621.1314488097172</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>768.9224031779654</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>975.1729928003651</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.003193755867</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1471.628259390062</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1699.120123412921</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.560777063743</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1990.400232554563</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.262669716467</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2901065953833</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="D46" t="n">
-        <v>681.9733337221541</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="E46" t="n">
-        <v>515.7651278750076</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="F46" t="n">
-        <v>343.903353649568</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
         <v>42.75541829589048</v>
@@ -7809,49 +7809,49 @@
         <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>306.3087174642596</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L46" t="n">
-        <v>415.8032076563076</v>
+        <v>523.2582343051843</v>
       </c>
       <c r="M46" t="n">
-        <v>944.9015090679522</v>
+        <v>1052.356535716829</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209472</v>
+        <v>1564.884713700229</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T46" t="n">
-        <v>1898.278526888668</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U46" t="n">
-        <v>1618.14318851495</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V46" t="n">
-        <v>1618.14318851495</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.290784687463</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.605438026725</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.262669716467</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>158.5724178990226</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>375.5191871062021</v>
       </c>
       <c r="M13" t="n">
-        <v>230.6754375026611</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>55.10188302684044</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
-        <v>331.2468980066366</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>156.4817195938953</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>273.6065467720881</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>296.8103824110302</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>142.5666799769534</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.73407669286644</v>
+        <v>307.5560500126508</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>346.007251837388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630808</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>249.7730798851973</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>453.4690496301063</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>268.6251448311431</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898349</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>423.4201561955193</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>423.4201561955192</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>307.5560500126507</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422154</v>
       </c>
       <c r="M34" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>230.6754375026606</v>
+        <v>308.7547637634491</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>216.7603978857185</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M43" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>129.9928201901496</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>158.5724178990228</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>141.2399822880257</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11466,16 +11466,16 @@
         <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>339.7414916804572</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>350.4005673940953</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>316.3486918182551</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.7782651876603</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23433,10 +23433,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>125.1655904527796</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23512,7 +23512,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>210.4679536849567</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.51920210130544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.9139190473011</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.5397172649723</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>254.6184574472129</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>104.5989580531638</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.9139190473002</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>202.4733752615159</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>68.87951289347598</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.57276407465952</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.1919990226019</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.307000930225</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.728066159284</v>
       </c>
       <c r="W23" t="n">
-        <v>297.2817932933511</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>29.2216787674891</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>329.9813415025507</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24691,13 +24691,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.3695905271807</v>
       </c>
       <c r="V29" t="n">
-        <v>189.6855734130251</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>65.32337728879122</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>247.4844052134108</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>50.20502247885253</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0775932412647</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.22423920776419</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6756459821301</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>279.6541472788159</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>44.42035830395707</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.1425707367808</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>5.141720865029328</v>
       </c>
       <c r="U40" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>40.2980146324544</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>20.78730379471449</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>167.6452344167787</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>112.1258597144738</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>72.45154097345909</v>
       </c>
       <c r="G44" t="n">
         <v>398.3085625684984</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>79.84131875275449</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>26.8783465789451</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>141.4497643945226</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333617.6139326398</v>
+        <v>333617.6139326397</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333617.6139326397</v>
+        <v>333617.6139326398</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>473349.6994154218</v>
+      </c>
+      <c r="C2" t="n">
         <v>473349.6994154219</v>
       </c>
-      <c r="C2" t="n">
-        <v>473349.6994154218</v>
-      </c>
       <c r="D2" t="n">
-        <v>473349.6994154218</v>
+        <v>473349.699415422</v>
       </c>
       <c r="E2" t="n">
-        <v>281477.9391068872</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="F2" t="n">
         <v>281477.9391068871</v>
       </c>
       <c r="G2" t="n">
+        <v>281477.9391068872</v>
+      </c>
+      <c r="H2" t="n">
         <v>281477.9391068871</v>
       </c>
-      <c r="H2" t="n">
-        <v>281477.9391068872</v>
-      </c>
       <c r="I2" t="n">
-        <v>353269.6521726172</v>
+        <v>353269.652172617</v>
       </c>
       <c r="J2" t="n">
-        <v>353269.6521726172</v>
+        <v>353269.652172617</v>
       </c>
       <c r="K2" t="n">
-        <v>353269.6521726172</v>
+        <v>353269.6521726171</v>
       </c>
       <c r="L2" t="n">
         <v>353269.6521726171</v>
       </c>
       <c r="M2" t="n">
+        <v>281477.9391068871</v>
+      </c>
+      <c r="N2" t="n">
+        <v>281477.939106887</v>
+      </c>
+      <c r="O2" t="n">
+        <v>281477.9391068871</v>
+      </c>
+      <c r="P2" t="n">
         <v>281477.9391068873</v>
-      </c>
-      <c r="N2" t="n">
-        <v>281477.9391068871</v>
-      </c>
-      <c r="O2" t="n">
-        <v>281477.939106887</v>
-      </c>
-      <c r="P2" t="n">
-        <v>281477.9391068872</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048179</v>
+        <v>57556.18318048178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160773</v>
+        <v>79247.32527160789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26429,25 +26429,25 @@
         <v>18463.88573763714</v>
       </c>
       <c r="F4" t="n">
-        <v>18463.88573763714</v>
+        <v>18463.88573763713</v>
       </c>
       <c r="G4" t="n">
         <v>18463.88573763714</v>
       </c>
       <c r="H4" t="n">
-        <v>18463.88573763715</v>
+        <v>18463.88573763714</v>
       </c>
       <c r="I4" t="n">
-        <v>54111.91521625009</v>
+        <v>54111.91521625008</v>
       </c>
       <c r="J4" t="n">
-        <v>54111.91521625009</v>
+        <v>54111.9152162501</v>
       </c>
       <c r="K4" t="n">
         <v>54111.9152162501</v>
       </c>
       <c r="L4" t="n">
-        <v>54111.91521625009</v>
+        <v>54111.91521625008</v>
       </c>
       <c r="M4" t="n">
         <v>18463.88573763714</v>
@@ -26459,7 +26459,7 @@
         <v>18463.88573763714</v>
       </c>
       <c r="P4" t="n">
-        <v>18463.88573763715</v>
+        <v>18463.88573763713</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650124</v>
@@ -26502,10 +26502,10 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="O5" t="n">
         <v>43269.71441650125</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118946.5725977612</v>
+        <v>118924.8589562647</v>
       </c>
       <c r="C6" t="n">
-        <v>118946.5725977611</v>
+        <v>118924.8589562649</v>
       </c>
       <c r="D6" t="n">
-        <v>118946.572597761</v>
+        <v>118924.8589562649</v>
       </c>
       <c r="E6" t="n">
-        <v>-336945.3169695048</v>
+        <v>-337548.4601876937</v>
       </c>
       <c r="F6" t="n">
-        <v>219744.3389527488</v>
+        <v>219141.1957345599</v>
       </c>
       <c r="G6" t="n">
-        <v>219744.3389527488</v>
+        <v>219141.19573456</v>
       </c>
       <c r="H6" t="n">
-        <v>219744.3389527488</v>
+        <v>219141.1957345598</v>
       </c>
       <c r="I6" t="n">
-        <v>185172.2320422738</v>
+        <v>184786.6394697385</v>
       </c>
       <c r="J6" t="n">
-        <v>242728.4152227555</v>
+        <v>242342.8226502202</v>
       </c>
       <c r="K6" t="n">
-        <v>242728.4152227555</v>
+        <v>242342.8226502203</v>
       </c>
       <c r="L6" t="n">
-        <v>242728.4152227555</v>
+        <v>242342.8226502203</v>
       </c>
       <c r="M6" t="n">
-        <v>140497.0136811412</v>
+        <v>139893.870462952</v>
       </c>
       <c r="N6" t="n">
-        <v>219744.3389527488</v>
+        <v>219141.1957345598</v>
       </c>
       <c r="O6" t="n">
-        <v>219744.3389527487</v>
+        <v>219141.1957345598</v>
       </c>
       <c r="P6" t="n">
-        <v>219744.3389527488</v>
+        <v>219141.19573456</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="F3" t="n">
         <v>494.2934179644261</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
         <v>534.442728698631</v>
@@ -26822,10 +26822,10 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
         <v>534.442728698631</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777376</v>
+        <v>318.0018188777382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,34 +31755,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O11" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
@@ -31791,10 +31791,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
@@ -31846,34 +31846,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
@@ -31934,19 +31934,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P13" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
         <v>3.80849026956197</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K11" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M11" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O11" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>238.4101197578752</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35497,19 +35497,19 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>404.8655501773066</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
         <v>148.85927498986</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>486.1196822496849</v>
       </c>
       <c r="M13" t="n">
-        <v>347.8229714793817</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O13" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
         <v>79.83770185885255</v>
       </c>
       <c r="K15" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
         <v>208.3339289115149</v>
@@ -35746,10 +35746,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.3816032211693</v>
+        <v>97.48348624800974</v>
       </c>
       <c r="K16" t="n">
         <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>446.8986708768589</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690281</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K19" t="n">
-        <v>239.0755877901237</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>384.2070419155709</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N19" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876733</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664825</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
         <v>79.83770185885255</v>
@@ -36208,7 +36208,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
         <v>255.1768339739348</v>
@@ -36220,10 +36220,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507202</v>
+        <v>407.410877554513</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>258.2184528471757</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>275.9075043099997</v>
+        <v>555.729477629784</v>
       </c>
       <c r="Q23" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>456.6077469808708</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398015</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
@@ -36594,10 +36594,10 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>466.7762232728699</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
@@ -36609,13 +36609,13 @@
         <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
@@ -36691,13 +36691,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P27" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36767,10 +36767,10 @@
         <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
-        <v>372.1140567181432</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>288.446787172811</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36831,7 +36831,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36843,19 +36843,19 @@
         <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>720.8347450849373</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36919,7 +36919,7 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>511.3862575357973</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
         <v>255.1768339739348</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>698.6888516741371</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>619.0437785791325</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
         <v>297.4145888894179</v>
@@ -37092,7 +37092,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37159,7 +37159,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>520.269959231448</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37171,7 +37171,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,10 +37232,10 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856982</v>
       </c>
       <c r="M34" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37305,7 +37305,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011804</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
@@ -37326,7 +37326,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550244</v>
       </c>
       <c r="R35" t="n">
         <v>89.79009951709452</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37405,10 +37405,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L37" t="n">
-        <v>341.2759326461434</v>
+        <v>419.3552589069319</v>
       </c>
       <c r="M37" t="n">
         <v>117.1475339767207</v>
       </c>
       <c r="N37" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
@@ -37484,7 +37484,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664825</v>
       </c>
       <c r="N38" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894183</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
         <v>248.1734276171333</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37636,7 +37636,7 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>494.8828868967648</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
         <v>181.2531855058807</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>299.3542660819469</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
         <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986308</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N40" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P40" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664825</v>
       </c>
       <c r="N41" t="n">
         <v>317.2852426969609</v>
@@ -37797,7 +37797,7 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171339</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
         <v>178.4607659550238</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,10 +37879,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M43" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>233.4817320771497</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4101197578753</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38177,7 +38177,7 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
-        <v>223.833850484254</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
         <v>110.6004951434828</v>
@@ -38186,16 +38186,16 @@
         <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>443.2304035674574</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
